--- a/Project/Pantome.xlsx
+++ b/Project/Pantome.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1976">
   <si>
     <t xml:space="preserve">f</t>
   </si>
@@ -5868,6 +5868,87 @@
   </si>
   <si>
     <t xml:space="preserve">000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F48E23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEC503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F49811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1F1F1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A2A2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAFAFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082F50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308D46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5f5f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5f6f5</t>
   </si>
 </sst>
 </file>
@@ -5879,7 +5960,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5924,6 +6005,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5974,7 +6061,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6012,6 +6099,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6092,13 +6183,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E991"/>
+  <dimension ref="A1:E1005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A399" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H420" activeCellId="0" sqref="H420"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A969" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N993" activeCellId="0" sqref="N993"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="12.66"/>
@@ -22949,6 +23040,244 @@
       </c>
       <c r="E991" s="2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C992" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="D992" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="E992" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C993" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="D993" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="E993" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C994" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="D994" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="E994" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C995" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D995" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E995" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C996" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D996" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="E996" s="2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C997" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D997" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="E997" s="2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C998" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D998" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="E998" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C999" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="D999" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="E999" s="2" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1000" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1000" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="E1000" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1001" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D1001" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1001" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1002" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D1002" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1002" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1003" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D1003" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="E1003" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1004" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="D1004" s="10" t="n">
+        <v>245</v>
+      </c>
+      <c r="E1004" s="10" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C1005" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="D1005" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="E1005" s="2" t="n">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -22973,7 +23302,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">

--- a/Project/Pantome.xlsx
+++ b/Project/Pantome.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1984">
   <si>
     <t xml:space="preserve">f</t>
   </si>
@@ -5949,6 +5949,30 @@
   </si>
   <si>
     <t xml:space="preserve">f5f6f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3fbdf0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e5e79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS 1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9f9f9f</t>
   </si>
 </sst>
 </file>
@@ -5960,7 +5984,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6005,12 +6029,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6061,7 +6079,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6099,10 +6117,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6183,16 +6197,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1005"/>
+  <dimension ref="A1:E1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A969" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N993" activeCellId="0" sqref="N993"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A975" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1009" activeCellId="0" sqref="G1009"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="12.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23256,10 +23270,10 @@
       <c r="C1004" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="D1004" s="10" t="n">
+      <c r="D1004" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="E1004" s="10" t="n">
+      <c r="E1004" s="2" t="n">
         <v>245</v>
       </c>
     </row>
@@ -23278,6 +23292,74 @@
       </c>
       <c r="E1005" s="2" t="n">
         <v>210</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C1006" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1006" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1006" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1007" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1007" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="E1007" s="2" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1008" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1008" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="E1008" s="2" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1009" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="D1009" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="E1009" s="2" t="n">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -23302,7 +23384,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
